--- a/pred_ohlcv/54_21/2019-10-31 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 VET ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>402392.1974188981</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>365392.1974188981</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>88117.8172188981</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-200118.2326811019</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-300118.2326811019</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-802261.8881811016</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-617868.5292811017</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-450868.5292811017</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1370279.192418899</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1204931.226218899</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1174568.046318899</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1056404.502518899</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1066024.502518899</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1066034.502518899</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1060612.872918898</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1049547.606618898</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1049547.606618898</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1051275.606618898</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1565923.204681102</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1146730.415581102</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1256046.676281102</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2343131.890481102</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2328678.498381102</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2476086.718881102</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2364590.675581102</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2373325.561081102</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2370723.520681102</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1153698.771181102</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>78164.50831889809</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>402392.1974188981</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>365392.1974188981</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>88117.8172188981</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-200118.2326811019</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-300118.2326811019</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-802261.8881811016</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-617868.5292811017</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-450868.5292811017</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1370279.192418899</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1204931.226218899</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1174568.046318899</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1056404.502518899</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1066024.502518899</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1066034.502518899</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1060612.872918898</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1049547.606618898</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1049547.606618898</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1051275.606618898</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1146730.415581102</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1256046.676281102</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2364590.675581102</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2373325.561081102</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2370723.520681102</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
